--- a/public/xls/Applications.xlsx
+++ b/public/xls/Applications.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wwwroot\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wwwroot\public\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Owner</t>
   </si>
@@ -36,16 +36,36 @@
   </si>
   <si>
     <t>Resource Group</t>
+  </si>
+  <si>
+    <t>qweqweqweqw</t>
+  </si>
+  <si>
+    <t>parshuram.kattimani@dpdhl.com</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
+  </si>
+  <si>
+    <t>cpmoniter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,10 +94,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -86,8 +107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,7 +392,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,11 +420,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7&amp;K000000Sensitivity: Internal &amp; Restricted</oddFooter>
   </headerFooter>
